--- a/exercise-solutions/ch-2-solutions.xlsx
+++ b/exercise-solutions/ch-2-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\exercise-solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5C070-27B5-45DB-8CF3-DCC4AA11CFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9232F6-D751-4BEF-B25D-6A118EE0B2D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>as we would be any other number.</t>
-  </si>
-  <si>
-    <t>Q1. The expected value of a six-sided die toss is 3 because the average toss will converge to 3 with more and more tosses.</t>
-  </si>
-  <si>
-    <t>Q2. We can find the percentage likelihood that this value would take 28 with the `NORM.DIST()` function:</t>
   </si>
   <si>
     <t>Q3. The range 80-120 is within two standard deviations of a variable with mean 100 and standard deviation 10;</t>
@@ -74,6 +68,12 @@
       </rPr>
       <t>where we are likely to land on 18</t>
     </r>
+  </si>
+  <si>
+    <t>Q1. The expected value of a six-sided die toss is 3.5 because the average toss will converge to 3.5 with more and more tosses.</t>
+  </si>
+  <si>
+    <t>Q2. We can find the percentage likelihood that this value would take 87 with the `NORM.DIST()` function:</t>
   </si>
 </sst>
 </file>
@@ -402,9 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -414,12 +412,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -434,7 +432,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -444,7 +442,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/exercise-solutions/ch-2-solutions.xlsx
+++ b/exercise-solutions/ch-2-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\exercise-solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9232F6-D751-4BEF-B25D-6A118EE0B2D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4BD67-075C-412A-8F77-AAB2BE407B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>as we would be any other number.</t>
-  </si>
-  <si>
-    <t>Q3. The range 80-120 is within two standard deviations of a variable with mean 100 and standard deviation 10;</t>
   </si>
   <si>
     <r>
@@ -73,7 +70,10 @@
     <t>Q1. The expected value of a six-sided die toss is 3.5 because the average toss will converge to 3.5 with more and more tosses.</t>
   </si>
   <si>
-    <t>Q2. We can find the percentage likelihood that this value would take 87 with the `NORM.DIST()` function:</t>
+    <t>Q2a. We can find the percentage likelihood that this value would take 87 with the `NORM.DIST()` function:</t>
+  </si>
+  <si>
+    <t>Q2b. The range 80-120 is within two standard deviations of a variable with mean 100 and standard deviation 10;</t>
   </si>
 </sst>
 </file>
@@ -412,12 +412,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -442,7 +442,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
